--- a/input_excel/cafr_2019.xlsx
+++ b/input_excel/cafr_2019.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinbao/Documents/PyCharm/Colin-Project/input_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/Colin-Project/output_pdf_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91B06A8-C1DE-6545-BE20-97C55CBE3ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0B7C6-2028-C442-9CCC-6F72D145340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Asset Allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="111-1" sheetId="1" r:id="rId1"/>
     <sheet name="112-1" sheetId="2" r:id="rId2"/>
     <sheet name="112-2" sheetId="3" r:id="rId3"/>
     <sheet name="113-1" sheetId="4" r:id="rId4"/>
     <sheet name="114-1" sheetId="5" r:id="rId5"/>
-    <sheet name="115-1" sheetId="6" r:id="rId6"/>
+    <sheet name="TOTAL TIME WEIGHTED RETURNS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -30,6 +30,9 @@
     <t>Table 1</t>
   </si>
   <si>
+    <t>Asset Allocation as of August 31, 2019</t>
+  </si>
+  <si>
     <t>Policy Range</t>
   </si>
   <si>
@@ -1349,10 +1352,6 @@
   </si>
   <si>
     <t>9.3%</t>
-  </si>
-  <si>
-    <t>Asset Allocation as of August 31, 2019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1726,9 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -1763,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1771,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1782,13 +1779,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1796,22 +1793,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1819,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1827,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1835,25 +1832,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1861,22 +1858,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1884,22 +1881,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1907,22 +1904,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1930,22 +1927,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1953,22 +1950,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1976,25 +1973,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2002,7 +1999,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2010,25 +2007,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2036,22 +2033,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2059,22 +2056,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2082,25 +2079,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2108,7 +2105,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2116,25 +2113,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2142,22 +2139,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2165,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2173,22 +2170,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2196,22 +2193,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2219,25 +2216,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2245,25 +2242,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2271,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2279,25 +2276,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2305,16 +2302,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2322,19 +2319,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2342,16 +2339,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2359,7 +2356,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2367,13 +2364,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2381,10 +2378,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2392,10 +2389,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2403,10 +2400,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2414,13 +2411,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2428,10 +2425,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2475,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2483,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2491,13 +2488,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2505,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2513,13 +2510,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2527,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2535,7 +2532,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2543,7 +2540,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2585,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2596,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2604,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2615,19 +2612,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2635,22 +2632,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2658,19 +2655,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2678,19 +2675,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2698,19 +2695,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2718,19 +2715,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2738,19 +2735,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2758,19 +2755,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" t="s">
         <v>177</v>
-      </c>
-      <c r="C12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2778,19 +2775,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2798,19 +2795,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2818,19 +2815,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
         <v>189</v>
-      </c>
-      <c r="D15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2838,19 +2835,19 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2858,13 +2855,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2902,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2910,10 +2907,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2921,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2932,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2940,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2948,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2956,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2964,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2972,10 +2969,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2983,10 +2980,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2994,10 +2991,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3005,10 +3002,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3016,10 +3013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3027,10 +3024,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3038,10 +3035,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3049,10 +3046,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3060,10 +3057,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3071,10 +3068,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3082,10 +3079,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3093,10 +3090,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3104,10 +3101,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3115,7 +3112,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3123,7 +3120,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3131,7 +3128,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3139,7 +3136,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3147,7 +3144,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3155,7 +3152,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3163,7 +3160,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3171,7 +3168,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3179,7 +3176,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3187,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3195,7 +3192,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3203,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3241,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3249,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3257,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3265,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3273,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3281,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3289,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3297,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3305,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3313,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3321,7 +3318,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3329,7 +3326,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3337,7 +3334,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3345,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3353,7 +3350,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3361,7 +3358,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3369,7 +3366,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3377,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3385,7 +3382,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3393,7 +3390,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3401,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3409,7 +3406,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3417,7 +3414,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3425,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3433,7 +3430,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3441,7 +3438,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3449,7 +3446,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3457,7 +3454,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3465,7 +3462,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3473,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3481,7 +3478,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3489,7 +3486,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3497,7 +3494,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3505,7 +3502,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3513,7 +3510,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3521,7 +3518,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3529,7 +3526,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3537,7 +3534,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3545,7 +3542,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3553,7 +3550,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3561,10 +3558,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3572,7 +3569,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3580,7 +3577,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3588,7 +3585,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3596,7 +3593,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +3606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -3635,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3643,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3651,19 +3650,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3671,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3679,19 +3678,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3699,19 +3698,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3719,19 +3718,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3739,19 +3738,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3759,19 +3758,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3779,19 +3778,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3799,19 +3798,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3819,19 +3818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
         <v>316</v>
-      </c>
-      <c r="C13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3839,19 +3838,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3859,19 +3858,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3879,19 +3878,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3899,19 +3898,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3919,19 +3918,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3939,19 +3938,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3959,7 +3958,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3967,19 +3966,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3987,19 +3986,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4007,19 +4006,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4027,19 +4026,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4047,19 +4046,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4067,19 +4066,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4087,19 +4086,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4107,19 +4106,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4127,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4135,19 +4134,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4155,19 +4154,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4175,19 +4174,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4195,19 +4194,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F33" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4215,19 +4214,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4235,19 +4234,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4255,19 +4254,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4275,19 +4274,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4295,19 +4294,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4315,19 +4314,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4335,19 +4334,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4355,19 +4354,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E41" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4375,7 +4374,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4383,19 +4382,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E43" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4403,19 +4402,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4423,7 +4422,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4431,19 +4430,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4451,19 +4450,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
